--- a/VersionRecords/Version 5.1.8.1 20161216/版本Bug和特性计划及评审表v5.1.8.xlsx
+++ b/VersionRecords/Version 5.1.8.1 20161216/版本Bug和特性计划及评审表v5.1.8.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.8.1 20161216\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本5.1.7.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.1.8.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="10" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="8" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="9" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.1.7.2 新特性|Fix Bug'!$A$1:$U$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.1.8.1 新特性|Fix Bug'!$A$1:$U$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
   <si>
     <t>No</t>
   </si>
@@ -251,13 +251,173 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>集中式房源录入改版</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>商圈录入规则调整</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地页优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC，租客PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱和芳</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置中心Bug修改</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐文瑞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页蘑菇占比去除</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键全网同步优化3期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC定时器BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋，李亚林</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李萌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房态图功能优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩淑芳</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC，官网域名调整</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.1.8</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问域名修改</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>1.房东PC项目访问域名从“p.mgzf.com”增加"hb.mgzf.com"域名访问
+2.Nginx跳转至"hb.mgzf.com/mogoroom-partnerpc/"去除项目名称
+3."p.mgzf.com”域名的跳转仍然保留</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于项目跳转</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -430,14 +590,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -495,7 +651,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -629,19 +785,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -682,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,9 +970,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -851,13 +991,13 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,50 +1054,47 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1345,7 +1482,7 @@
   <dimension ref="A1:V169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1439,197 +1576,453 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="39">
+        <v>42718</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" s="39">
+        <v>42720</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>106</v>
+      </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="54"/>
-    </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="53"/>
+    </row>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="39">
+        <v>42718</v>
+      </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
+      <c r="L3" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P3" s="39">
+        <v>42720</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>106</v>
+      </c>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="54"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="39">
+        <v>42718</v>
+      </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="47"/>
+      <c r="L4" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="39">
+        <v>42720</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>106</v>
+      </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="54"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="39">
+        <v>42718</v>
+      </c>
       <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="47"/>
+      <c r="L5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P5" s="39">
+        <v>42720</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>106</v>
+      </c>
       <c r="R5" s="44"/>
       <c r="S5" s="44"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="54"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="53"/>
     </row>
     <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="39">
+        <v>42718</v>
+      </c>
       <c r="K6" s="38"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="47"/>
+      <c r="L6" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P6" s="39">
+        <v>42720</v>
+      </c>
+      <c r="Q6" s="47" t="s">
+        <v>106</v>
+      </c>
       <c r="R6" s="44"/>
       <c r="S6" s="44"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="54"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="53"/>
     </row>
     <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="39"/>
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="39">
+        <v>42718</v>
+      </c>
       <c r="K7" s="38"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="47"/>
+      <c r="L7" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="39">
+        <v>42720</v>
+      </c>
+      <c r="Q7" s="47" t="s">
+        <v>106</v>
+      </c>
       <c r="R7" s="44"/>
       <c r="S7" s="44"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="55"/>
-      <c r="V7" s="54"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="53"/>
     </row>
     <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="39">
+        <v>42718</v>
+      </c>
       <c r="K8" s="38"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="55"/>
-      <c r="V8" s="54"/>
+      <c r="L8" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P8" s="39">
+        <v>42720</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="39">
+        <v>42718</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="39">
+        <v>42718</v>
+      </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="54"/>
+      <c r="L9" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="39">
+        <v>42720</v>
+      </c>
+      <c r="Q9" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="53"/>
     </row>
     <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
@@ -1651,9 +2044,9 @@
       <c r="Q10" s="47"/>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="54"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
@@ -1675,9 +2068,9 @@
       <c r="Q11" s="47"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="54"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="53"/>
     </row>
     <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
@@ -1699,9 +2092,9 @@
       <c r="Q12" s="47"/>
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="54"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="53"/>
     </row>
     <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
@@ -1723,9 +2116,9 @@
       <c r="Q13" s="47"/>
       <c r="R13" s="44"/>
       <c r="S13" s="44"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="54"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="53"/>
     </row>
     <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
@@ -1748,8 +2141,8 @@
       <c r="R14" s="44"/>
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="53"/>
     </row>
     <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
@@ -1772,8 +2165,8 @@
       <c r="R15" s="44"/>
       <c r="S15" s="44"/>
       <c r="T15" s="44"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="53"/>
     </row>
     <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
@@ -1786,18 +2179,18 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="49"/>
+      <c r="K16" s="48"/>
       <c r="L16" s="47"/>
       <c r="M16" s="38"/>
       <c r="N16" s="38"/>
-      <c r="O16" s="50"/>
+      <c r="O16" s="49"/>
       <c r="P16" s="39"/>
-      <c r="Q16" s="50"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="44"/>
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="54"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="53"/>
     </row>
     <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
@@ -1810,7 +2203,7 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="51"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="47"/>
       <c r="M17" s="38"/>
       <c r="N17" s="38"/>
@@ -1833,7 +2226,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="51"/>
+      <c r="K18" s="50"/>
       <c r="L18" s="47"/>
       <c r="M18" s="38"/>
       <c r="N18" s="38"/>
@@ -1856,11 +2249,11 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="51"/>
+      <c r="K19" s="50"/>
       <c r="L19" s="47"/>
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="52"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="47"/>
       <c r="R19" s="44"/>
@@ -1889,7 +2282,7 @@
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
-      <c r="U20" s="55"/>
+      <c r="U20" s="54"/>
     </row>
     <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
@@ -1912,7 +2305,7 @@
       <c r="R21" s="44"/>
       <c r="S21" s="44"/>
       <c r="T21" s="44"/>
-      <c r="U21" s="55"/>
+      <c r="U21" s="54"/>
     </row>
     <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
@@ -1935,7 +2328,7 @@
       <c r="R22" s="44"/>
       <c r="S22" s="44"/>
       <c r="T22" s="44"/>
-      <c r="U22" s="55"/>
+      <c r="U22" s="54"/>
     </row>
     <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
@@ -1955,10 +2348,10 @@
       <c r="O23" s="47"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="58"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="59"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="58"/>
     </row>
     <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
@@ -1978,10 +2371,10 @@
       <c r="O24" s="47"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="58"/>
     </row>
     <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
@@ -2001,10 +2394,10 @@
       <c r="O25" s="47"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="47"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="58"/>
     </row>
     <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
@@ -2024,10 +2417,10 @@
       <c r="O26" s="47"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="47"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="60"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="58"/>
     </row>
     <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
@@ -2047,10 +2440,10 @@
       <c r="O27" s="47"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="58"/>
     </row>
     <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
@@ -2070,9 +2463,9 @@
       <c r="O28" s="47"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="47"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
       <c r="U28" s="47"/>
     </row>
     <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
@@ -2096,7 +2489,7 @@
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
-      <c r="U29" s="55"/>
+      <c r="U29" s="54"/>
     </row>
     <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
@@ -2119,7 +2512,7 @@
       <c r="R30" s="44"/>
       <c r="S30" s="44"/>
       <c r="T30" s="44"/>
-      <c r="U30" s="55"/>
+      <c r="U30" s="54"/>
     </row>
     <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
@@ -2142,7 +2535,7 @@
       <c r="R31" s="44"/>
       <c r="S31" s="44"/>
       <c r="T31" s="44"/>
-      <c r="U31" s="55"/>
+      <c r="U31" s="54"/>
     </row>
     <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
@@ -2162,10 +2555,10 @@
       <c r="O32" s="47"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="47"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="60"/>
-      <c r="U32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="58"/>
     </row>
     <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
@@ -2188,7 +2581,7 @@
       <c r="R33" s="44"/>
       <c r="S33" s="44"/>
       <c r="T33" s="44"/>
-      <c r="U33" s="53" t="s">
+      <c r="U33" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2213,7 +2606,7 @@
       <c r="R34" s="44"/>
       <c r="S34" s="44"/>
       <c r="T34" s="44"/>
-      <c r="U34" s="55"/>
+      <c r="U34" s="54"/>
     </row>
     <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
@@ -2236,7 +2629,7 @@
       <c r="R35" s="44"/>
       <c r="S35" s="44"/>
       <c r="T35" s="44"/>
-      <c r="U35" s="55"/>
+      <c r="U35" s="54"/>
     </row>
     <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
@@ -2259,7 +2652,7 @@
       <c r="R36" s="44"/>
       <c r="S36" s="44"/>
       <c r="T36" s="44"/>
-      <c r="U36" s="55"/>
+      <c r="U36" s="54"/>
     </row>
     <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
@@ -2282,7 +2675,7 @@
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
       <c r="T37" s="44"/>
-      <c r="U37" s="55"/>
+      <c r="U37" s="54"/>
     </row>
     <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
@@ -2305,7 +2698,7 @@
       <c r="R38" s="44"/>
       <c r="S38" s="44"/>
       <c r="T38" s="44"/>
-      <c r="U38" s="55"/>
+      <c r="U38" s="54"/>
     </row>
     <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
@@ -2328,7 +2721,7 @@
       <c r="R39" s="44"/>
       <c r="S39" s="44"/>
       <c r="T39" s="44"/>
-      <c r="U39" s="55"/>
+      <c r="U39" s="54"/>
     </row>
     <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
@@ -2351,7 +2744,7 @@
       <c r="R40" s="44"/>
       <c r="S40" s="44"/>
       <c r="T40" s="44"/>
-      <c r="U40" s="55"/>
+      <c r="U40" s="54"/>
     </row>
     <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
@@ -2374,7 +2767,7 @@
       <c r="R41" s="44"/>
       <c r="S41" s="44"/>
       <c r="T41" s="44"/>
-      <c r="U41" s="55"/>
+      <c r="U41" s="54"/>
     </row>
     <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
@@ -2397,7 +2790,7 @@
       <c r="R42" s="44"/>
       <c r="S42" s="44"/>
       <c r="T42" s="44"/>
-      <c r="U42" s="55"/>
+      <c r="U42" s="54"/>
     </row>
     <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
@@ -2420,7 +2813,7 @@
       <c r="R43" s="44"/>
       <c r="S43" s="44"/>
       <c r="T43" s="44"/>
-      <c r="U43" s="55"/>
+      <c r="U43" s="54"/>
     </row>
     <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
@@ -2440,10 +2833,10 @@
       <c r="O44" s="47"/>
       <c r="P44" s="39"/>
       <c r="Q44" s="47"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="54"/>
     </row>
     <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
@@ -2463,10 +2856,10 @@
       <c r="O45" s="47"/>
       <c r="P45" s="39"/>
       <c r="Q45" s="47"/>
-      <c r="R45" s="56"/>
-      <c r="S45" s="56"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="54"/>
     </row>
     <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
@@ -2479,7 +2872,7 @@
       <c r="H46" s="39"/>
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
-      <c r="K46" s="51"/>
+      <c r="K46" s="50"/>
       <c r="L46" s="47"/>
       <c r="M46" s="47"/>
       <c r="N46" s="38"/>
@@ -2502,7 +2895,7 @@
       <c r="H47" s="39"/>
       <c r="I47" s="39"/>
       <c r="J47" s="39"/>
-      <c r="K47" s="51"/>
+      <c r="K47" s="50"/>
       <c r="L47" s="47"/>
       <c r="M47" s="47"/>
       <c r="N47" s="38"/>
@@ -2525,7 +2918,7 @@
       <c r="H48" s="39"/>
       <c r="I48" s="39"/>
       <c r="J48" s="39"/>
-      <c r="K48" s="51"/>
+      <c r="K48" s="50"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
       <c r="N48" s="38"/>
@@ -2548,7 +2941,7 @@
       <c r="H49" s="39"/>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
-      <c r="K49" s="51"/>
+      <c r="K49" s="50"/>
       <c r="L49" s="47"/>
       <c r="M49" s="47"/>
       <c r="N49" s="38"/>
@@ -2571,7 +2964,7 @@
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
-      <c r="K50" s="51"/>
+      <c r="K50" s="50"/>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
       <c r="N50" s="38"/>
@@ -2594,7 +2987,7 @@
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
-      <c r="K51" s="51"/>
+      <c r="K51" s="50"/>
       <c r="L51" s="47"/>
       <c r="M51" s="47"/>
       <c r="N51" s="38"/>
@@ -2617,7 +3010,7 @@
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
-      <c r="K52" s="51"/>
+      <c r="K52" s="50"/>
       <c r="L52" s="47"/>
       <c r="M52" s="47"/>
       <c r="N52" s="38"/>
@@ -2640,7 +3033,7 @@
       <c r="H53" s="46"/>
       <c r="I53" s="44"/>
       <c r="J53" s="46"/>
-      <c r="K53" s="51"/>
+      <c r="K53" s="50"/>
       <c r="L53" s="44"/>
       <c r="M53" s="44"/>
       <c r="N53" s="44"/>
@@ -2663,7 +3056,7 @@
       <c r="H54" s="46"/>
       <c r="I54" s="44"/>
       <c r="J54" s="46"/>
-      <c r="K54" s="51"/>
+      <c r="K54" s="50"/>
       <c r="L54" s="44"/>
       <c r="M54" s="44"/>
       <c r="N54" s="44"/>
@@ -2686,7 +3079,7 @@
       <c r="H55" s="46"/>
       <c r="I55" s="44"/>
       <c r="J55" s="46"/>
-      <c r="K55" s="51"/>
+      <c r="K55" s="50"/>
       <c r="L55" s="44"/>
       <c r="M55" s="44"/>
       <c r="N55" s="44"/>
@@ -2709,7 +3102,7 @@
       <c r="H56" s="46"/>
       <c r="I56" s="44"/>
       <c r="J56" s="46"/>
-      <c r="K56" s="51"/>
+      <c r="K56" s="50"/>
       <c r="L56" s="44"/>
       <c r="M56" s="44"/>
       <c r="N56" s="44"/>
@@ -2732,7 +3125,7 @@
       <c r="H57" s="46"/>
       <c r="I57" s="44"/>
       <c r="J57" s="46"/>
-      <c r="K57" s="51"/>
+      <c r="K57" s="50"/>
       <c r="L57" s="44"/>
       <c r="M57" s="44"/>
       <c r="N57" s="44"/>
@@ -2755,7 +3148,7 @@
       <c r="H58" s="46"/>
       <c r="I58" s="44"/>
       <c r="J58" s="46"/>
-      <c r="K58" s="51"/>
+      <c r="K58" s="50"/>
       <c r="L58" s="44"/>
       <c r="M58" s="44"/>
       <c r="N58" s="44"/>
@@ -2778,7 +3171,7 @@
       <c r="H59" s="46"/>
       <c r="I59" s="44"/>
       <c r="J59" s="46"/>
-      <c r="K59" s="51"/>
+      <c r="K59" s="50"/>
       <c r="L59" s="44"/>
       <c r="M59" s="44"/>
       <c r="N59" s="44"/>
@@ -2801,7 +3194,7 @@
       <c r="H60" s="46"/>
       <c r="I60" s="44"/>
       <c r="J60" s="46"/>
-      <c r="K60" s="51"/>
+      <c r="K60" s="50"/>
       <c r="L60" s="44"/>
       <c r="M60" s="44"/>
       <c r="N60" s="44"/>
@@ -2824,7 +3217,7 @@
       <c r="H61" s="46"/>
       <c r="I61" s="44"/>
       <c r="J61" s="46"/>
-      <c r="K61" s="51"/>
+      <c r="K61" s="50"/>
       <c r="L61" s="44"/>
       <c r="M61" s="44"/>
       <c r="N61" s="44"/>
@@ -2847,7 +3240,7 @@
       <c r="H62" s="46"/>
       <c r="I62" s="44"/>
       <c r="J62" s="46"/>
-      <c r="K62" s="51"/>
+      <c r="K62" s="50"/>
       <c r="L62" s="44"/>
       <c r="M62" s="44"/>
       <c r="N62" s="44"/>
@@ -2870,7 +3263,7 @@
       <c r="H63" s="46"/>
       <c r="I63" s="44"/>
       <c r="J63" s="46"/>
-      <c r="K63" s="51"/>
+      <c r="K63" s="50"/>
       <c r="L63" s="44"/>
       <c r="M63" s="44"/>
       <c r="N63" s="44"/>
@@ -2893,7 +3286,7 @@
       <c r="H64" s="46"/>
       <c r="I64" s="44"/>
       <c r="J64" s="46"/>
-      <c r="K64" s="51"/>
+      <c r="K64" s="50"/>
       <c r="L64" s="44"/>
       <c r="M64" s="44"/>
       <c r="N64" s="44"/>
@@ -2916,7 +3309,7 @@
       <c r="H65" s="46"/>
       <c r="I65" s="44"/>
       <c r="J65" s="46"/>
-      <c r="K65" s="51"/>
+      <c r="K65" s="50"/>
       <c r="L65" s="44"/>
       <c r="M65" s="44"/>
       <c r="N65" s="44"/>
@@ -2939,7 +3332,7 @@
       <c r="H66" s="46"/>
       <c r="I66" s="44"/>
       <c r="J66" s="46"/>
-      <c r="K66" s="51"/>
+      <c r="K66" s="50"/>
       <c r="L66" s="44"/>
       <c r="M66" s="44"/>
       <c r="N66" s="44"/>
@@ -2962,7 +3355,7 @@
       <c r="H67" s="46"/>
       <c r="I67" s="44"/>
       <c r="J67" s="46"/>
-      <c r="K67" s="51"/>
+      <c r="K67" s="50"/>
       <c r="L67" s="44"/>
       <c r="M67" s="44"/>
       <c r="N67" s="44"/>
@@ -2985,7 +3378,7 @@
       <c r="H68" s="46"/>
       <c r="I68" s="44"/>
       <c r="J68" s="46"/>
-      <c r="K68" s="51"/>
+      <c r="K68" s="50"/>
       <c r="L68" s="44"/>
       <c r="M68" s="44"/>
       <c r="N68" s="44"/>
@@ -3008,7 +3401,7 @@
       <c r="H69" s="46"/>
       <c r="I69" s="44"/>
       <c r="J69" s="46"/>
-      <c r="K69" s="51"/>
+      <c r="K69" s="50"/>
       <c r="L69" s="44"/>
       <c r="M69" s="44"/>
       <c r="N69" s="44"/>
@@ -3031,7 +3424,7 @@
       <c r="H70" s="46"/>
       <c r="I70" s="44"/>
       <c r="J70" s="46"/>
-      <c r="K70" s="51"/>
+      <c r="K70" s="50"/>
       <c r="L70" s="44"/>
       <c r="M70" s="44"/>
       <c r="N70" s="44"/>
@@ -3054,7 +3447,7 @@
       <c r="H71" s="46"/>
       <c r="I71" s="44"/>
       <c r="J71" s="46"/>
-      <c r="K71" s="51"/>
+      <c r="K71" s="50"/>
       <c r="L71" s="44"/>
       <c r="M71" s="44"/>
       <c r="N71" s="44"/>
@@ -3077,7 +3470,7 @@
       <c r="H72" s="46"/>
       <c r="I72" s="44"/>
       <c r="J72" s="46"/>
-      <c r="K72" s="51"/>
+      <c r="K72" s="50"/>
       <c r="L72" s="44"/>
       <c r="M72" s="44"/>
       <c r="N72" s="44"/>
@@ -3100,7 +3493,7 @@
       <c r="H73" s="46"/>
       <c r="I73" s="44"/>
       <c r="J73" s="46"/>
-      <c r="K73" s="51"/>
+      <c r="K73" s="50"/>
       <c r="L73" s="44"/>
       <c r="M73" s="44"/>
       <c r="N73" s="44"/>
@@ -3123,7 +3516,7 @@
       <c r="H74" s="46"/>
       <c r="I74" s="44"/>
       <c r="J74" s="46"/>
-      <c r="K74" s="51"/>
+      <c r="K74" s="50"/>
       <c r="L74" s="44"/>
       <c r="M74" s="44"/>
       <c r="N74" s="44"/>
@@ -3146,7 +3539,7 @@
       <c r="H75" s="46"/>
       <c r="I75" s="44"/>
       <c r="J75" s="46"/>
-      <c r="K75" s="51"/>
+      <c r="K75" s="50"/>
       <c r="L75" s="44"/>
       <c r="M75" s="44"/>
       <c r="N75" s="44"/>
@@ -3169,7 +3562,7 @@
       <c r="H76" s="46"/>
       <c r="I76" s="44"/>
       <c r="J76" s="46"/>
-      <c r="K76" s="51"/>
+      <c r="K76" s="50"/>
       <c r="L76" s="44"/>
       <c r="M76" s="44"/>
       <c r="N76" s="44"/>
@@ -3192,7 +3585,7 @@
       <c r="H77" s="46"/>
       <c r="I77" s="44"/>
       <c r="J77" s="46"/>
-      <c r="K77" s="51"/>
+      <c r="K77" s="50"/>
       <c r="L77" s="44"/>
       <c r="M77" s="44"/>
       <c r="N77" s="44"/>
@@ -3215,7 +3608,7 @@
       <c r="H78" s="46"/>
       <c r="I78" s="44"/>
       <c r="J78" s="46"/>
-      <c r="K78" s="51"/>
+      <c r="K78" s="50"/>
       <c r="L78" s="44"/>
       <c r="M78" s="44"/>
       <c r="N78" s="44"/>
@@ -3238,7 +3631,7 @@
       <c r="H79" s="46"/>
       <c r="I79" s="44"/>
       <c r="J79" s="46"/>
-      <c r="K79" s="51"/>
+      <c r="K79" s="50"/>
       <c r="L79" s="44"/>
       <c r="M79" s="44"/>
       <c r="N79" s="44"/>
@@ -3261,7 +3654,7 @@
       <c r="H80" s="46"/>
       <c r="I80" s="44"/>
       <c r="J80" s="46"/>
-      <c r="K80" s="51"/>
+      <c r="K80" s="50"/>
       <c r="L80" s="44"/>
       <c r="M80" s="44"/>
       <c r="N80" s="44"/>
@@ -3284,7 +3677,7 @@
       <c r="H81" s="46"/>
       <c r="I81" s="44"/>
       <c r="J81" s="46"/>
-      <c r="K81" s="51"/>
+      <c r="K81" s="50"/>
       <c r="L81" s="44"/>
       <c r="M81" s="44"/>
       <c r="N81" s="44"/>
@@ -3307,7 +3700,7 @@
       <c r="H82" s="46"/>
       <c r="I82" s="44"/>
       <c r="J82" s="46"/>
-      <c r="K82" s="51"/>
+      <c r="K82" s="50"/>
       <c r="L82" s="44"/>
       <c r="M82" s="44"/>
       <c r="N82" s="44"/>
@@ -3330,7 +3723,7 @@
       <c r="H83" s="46"/>
       <c r="I83" s="44"/>
       <c r="J83" s="46"/>
-      <c r="K83" s="51"/>
+      <c r="K83" s="50"/>
       <c r="L83" s="44"/>
       <c r="M83" s="44"/>
       <c r="N83" s="44"/>
@@ -3353,7 +3746,7 @@
       <c r="H84" s="46"/>
       <c r="I84" s="44"/>
       <c r="J84" s="46"/>
-      <c r="K84" s="51"/>
+      <c r="K84" s="50"/>
       <c r="L84" s="44"/>
       <c r="M84" s="44"/>
       <c r="N84" s="44"/>
@@ -3376,7 +3769,7 @@
       <c r="H85" s="46"/>
       <c r="I85" s="44"/>
       <c r="J85" s="46"/>
-      <c r="K85" s="51"/>
+      <c r="K85" s="50"/>
       <c r="L85" s="44"/>
       <c r="M85" s="44"/>
       <c r="N85" s="44"/>
@@ -3399,7 +3792,7 @@
       <c r="H86" s="46"/>
       <c r="I86" s="44"/>
       <c r="J86" s="46"/>
-      <c r="K86" s="51"/>
+      <c r="K86" s="50"/>
       <c r="L86" s="44"/>
       <c r="M86" s="44"/>
       <c r="N86" s="44"/>
@@ -3422,7 +3815,7 @@
       <c r="H87" s="46"/>
       <c r="I87" s="44"/>
       <c r="J87" s="46"/>
-      <c r="K87" s="51"/>
+      <c r="K87" s="50"/>
       <c r="L87" s="44"/>
       <c r="M87" s="44"/>
       <c r="N87" s="44"/>
@@ -3445,7 +3838,7 @@
       <c r="H88" s="46"/>
       <c r="I88" s="44"/>
       <c r="J88" s="46"/>
-      <c r="K88" s="51"/>
+      <c r="K88" s="50"/>
       <c r="L88" s="44"/>
       <c r="M88" s="44"/>
       <c r="N88" s="44"/>
@@ -3468,7 +3861,7 @@
       <c r="H89" s="46"/>
       <c r="I89" s="44"/>
       <c r="J89" s="46"/>
-      <c r="K89" s="51"/>
+      <c r="K89" s="50"/>
       <c r="L89" s="44"/>
       <c r="M89" s="44"/>
       <c r="N89" s="44"/>
@@ -3491,7 +3884,7 @@
       <c r="H90" s="46"/>
       <c r="I90" s="44"/>
       <c r="J90" s="46"/>
-      <c r="K90" s="51"/>
+      <c r="K90" s="50"/>
       <c r="L90" s="44"/>
       <c r="M90" s="44"/>
       <c r="N90" s="44"/>
@@ -3514,7 +3907,7 @@
       <c r="H91" s="46"/>
       <c r="I91" s="44"/>
       <c r="J91" s="46"/>
-      <c r="K91" s="51"/>
+      <c r="K91" s="50"/>
       <c r="L91" s="44"/>
       <c r="M91" s="44"/>
       <c r="N91" s="44"/>
@@ -3537,7 +3930,7 @@
       <c r="H92" s="46"/>
       <c r="I92" s="44"/>
       <c r="J92" s="46"/>
-      <c r="K92" s="51"/>
+      <c r="K92" s="50"/>
       <c r="L92" s="44"/>
       <c r="M92" s="44"/>
       <c r="N92" s="44"/>
@@ -3560,7 +3953,7 @@
       <c r="H93" s="46"/>
       <c r="I93" s="44"/>
       <c r="J93" s="46"/>
-      <c r="K93" s="51"/>
+      <c r="K93" s="50"/>
       <c r="L93" s="44"/>
       <c r="M93" s="44"/>
       <c r="N93" s="44"/>
@@ -3583,7 +3976,7 @@
       <c r="H94" s="46"/>
       <c r="I94" s="44"/>
       <c r="J94" s="46"/>
-      <c r="K94" s="51"/>
+      <c r="K94" s="50"/>
       <c r="L94" s="44"/>
       <c r="M94" s="44"/>
       <c r="N94" s="44"/>
@@ -3606,7 +3999,7 @@
       <c r="H95" s="46"/>
       <c r="I95" s="44"/>
       <c r="J95" s="46"/>
-      <c r="K95" s="51"/>
+      <c r="K95" s="50"/>
       <c r="L95" s="44"/>
       <c r="M95" s="44"/>
       <c r="N95" s="44"/>
@@ -3629,7 +4022,7 @@
       <c r="H96" s="46"/>
       <c r="I96" s="44"/>
       <c r="J96" s="46"/>
-      <c r="K96" s="51"/>
+      <c r="K96" s="50"/>
       <c r="L96" s="44"/>
       <c r="M96" s="44"/>
       <c r="N96" s="44"/>
@@ -3652,7 +4045,7 @@
       <c r="H97" s="46"/>
       <c r="I97" s="44"/>
       <c r="J97" s="46"/>
-      <c r="K97" s="51"/>
+      <c r="K97" s="50"/>
       <c r="L97" s="44"/>
       <c r="M97" s="44"/>
       <c r="N97" s="44"/>
@@ -3675,7 +4068,7 @@
       <c r="H98" s="46"/>
       <c r="I98" s="44"/>
       <c r="J98" s="46"/>
-      <c r="K98" s="51"/>
+      <c r="K98" s="50"/>
       <c r="L98" s="44"/>
       <c r="M98" s="44"/>
       <c r="N98" s="44"/>
@@ -3698,7 +4091,7 @@
       <c r="H99" s="46"/>
       <c r="I99" s="44"/>
       <c r="J99" s="46"/>
-      <c r="K99" s="51"/>
+      <c r="K99" s="50"/>
       <c r="L99" s="44"/>
       <c r="M99" s="44"/>
       <c r="N99" s="44"/>
@@ -3721,7 +4114,7 @@
       <c r="H100" s="46"/>
       <c r="I100" s="44"/>
       <c r="J100" s="46"/>
-      <c r="K100" s="51"/>
+      <c r="K100" s="50"/>
       <c r="L100" s="44"/>
       <c r="M100" s="44"/>
       <c r="N100" s="44"/>
@@ -3744,7 +4137,7 @@
       <c r="H101" s="46"/>
       <c r="I101" s="44"/>
       <c r="J101" s="46"/>
-      <c r="K101" s="51"/>
+      <c r="K101" s="50"/>
       <c r="L101" s="44"/>
       <c r="M101" s="44"/>
       <c r="N101" s="44"/>
@@ -3767,7 +4160,7 @@
       <c r="H102" s="46"/>
       <c r="I102" s="44"/>
       <c r="J102" s="46"/>
-      <c r="K102" s="51"/>
+      <c r="K102" s="50"/>
       <c r="L102" s="44"/>
       <c r="M102" s="44"/>
       <c r="N102" s="44"/>
@@ -3790,7 +4183,7 @@
       <c r="H103" s="46"/>
       <c r="I103" s="44"/>
       <c r="J103" s="46"/>
-      <c r="K103" s="51"/>
+      <c r="K103" s="50"/>
       <c r="L103" s="44"/>
       <c r="M103" s="44"/>
       <c r="N103" s="44"/>
@@ -3813,7 +4206,7 @@
       <c r="H104" s="46"/>
       <c r="I104" s="44"/>
       <c r="J104" s="46"/>
-      <c r="K104" s="51"/>
+      <c r="K104" s="50"/>
       <c r="L104" s="44"/>
       <c r="M104" s="44"/>
       <c r="N104" s="44"/>
@@ -3836,7 +4229,7 @@
       <c r="H105" s="46"/>
       <c r="I105" s="44"/>
       <c r="J105" s="46"/>
-      <c r="K105" s="51"/>
+      <c r="K105" s="50"/>
       <c r="L105" s="44"/>
       <c r="M105" s="44"/>
       <c r="N105" s="44"/>
@@ -3859,7 +4252,7 @@
       <c r="H106" s="46"/>
       <c r="I106" s="44"/>
       <c r="J106" s="46"/>
-      <c r="K106" s="51"/>
+      <c r="K106" s="50"/>
       <c r="L106" s="44"/>
       <c r="M106" s="44"/>
       <c r="N106" s="44"/>
@@ -3882,7 +4275,7 @@
       <c r="H107" s="46"/>
       <c r="I107" s="44"/>
       <c r="J107" s="46"/>
-      <c r="K107" s="51"/>
+      <c r="K107" s="50"/>
       <c r="L107" s="44"/>
       <c r="M107" s="44"/>
       <c r="N107" s="44"/>
@@ -3905,7 +4298,7 @@
       <c r="H108" s="46"/>
       <c r="I108" s="44"/>
       <c r="J108" s="46"/>
-      <c r="K108" s="51"/>
+      <c r="K108" s="50"/>
       <c r="L108" s="44"/>
       <c r="M108" s="44"/>
       <c r="N108" s="44"/>
@@ -3928,7 +4321,7 @@
       <c r="H109" s="46"/>
       <c r="I109" s="44"/>
       <c r="J109" s="46"/>
-      <c r="K109" s="51"/>
+      <c r="K109" s="50"/>
       <c r="L109" s="44"/>
       <c r="M109" s="44"/>
       <c r="N109" s="44"/>
@@ -3951,7 +4344,7 @@
       <c r="H110" s="46"/>
       <c r="I110" s="44"/>
       <c r="J110" s="46"/>
-      <c r="K110" s="51"/>
+      <c r="K110" s="50"/>
       <c r="L110" s="44"/>
       <c r="M110" s="44"/>
       <c r="N110" s="44"/>
@@ -3974,7 +4367,7 @@
       <c r="H111" s="46"/>
       <c r="I111" s="44"/>
       <c r="J111" s="46"/>
-      <c r="K111" s="51"/>
+      <c r="K111" s="50"/>
       <c r="L111" s="44"/>
       <c r="M111" s="44"/>
       <c r="N111" s="44"/>
@@ -3997,7 +4390,7 @@
       <c r="H112" s="46"/>
       <c r="I112" s="44"/>
       <c r="J112" s="46"/>
-      <c r="K112" s="51"/>
+      <c r="K112" s="50"/>
       <c r="L112" s="44"/>
       <c r="M112" s="44"/>
       <c r="N112" s="44"/>
@@ -4020,7 +4413,7 @@
       <c r="H113" s="46"/>
       <c r="I113" s="44"/>
       <c r="J113" s="46"/>
-      <c r="K113" s="51"/>
+      <c r="K113" s="50"/>
       <c r="L113" s="44"/>
       <c r="M113" s="44"/>
       <c r="N113" s="44"/>
@@ -4043,7 +4436,7 @@
       <c r="H114" s="46"/>
       <c r="I114" s="44"/>
       <c r="J114" s="46"/>
-      <c r="K114" s="51"/>
+      <c r="K114" s="50"/>
       <c r="L114" s="44"/>
       <c r="M114" s="44"/>
       <c r="N114" s="44"/>
@@ -4066,7 +4459,7 @@
       <c r="H115" s="46"/>
       <c r="I115" s="44"/>
       <c r="J115" s="46"/>
-      <c r="K115" s="51"/>
+      <c r="K115" s="50"/>
       <c r="L115" s="44"/>
       <c r="M115" s="44"/>
       <c r="N115" s="44"/>
@@ -4089,7 +4482,7 @@
       <c r="H116" s="46"/>
       <c r="I116" s="44"/>
       <c r="J116" s="46"/>
-      <c r="K116" s="51"/>
+      <c r="K116" s="50"/>
       <c r="L116" s="44"/>
       <c r="M116" s="44"/>
       <c r="N116" s="44"/>
@@ -4112,7 +4505,7 @@
       <c r="H117" s="46"/>
       <c r="I117" s="44"/>
       <c r="J117" s="46"/>
-      <c r="K117" s="51"/>
+      <c r="K117" s="50"/>
       <c r="L117" s="44"/>
       <c r="M117" s="44"/>
       <c r="N117" s="44"/>
@@ -4135,7 +4528,7 @@
       <c r="H118" s="46"/>
       <c r="I118" s="44"/>
       <c r="J118" s="46"/>
-      <c r="K118" s="51"/>
+      <c r="K118" s="50"/>
       <c r="L118" s="44"/>
       <c r="M118" s="44"/>
       <c r="N118" s="44"/>
@@ -4158,7 +4551,7 @@
       <c r="H119" s="46"/>
       <c r="I119" s="44"/>
       <c r="J119" s="46"/>
-      <c r="K119" s="51"/>
+      <c r="K119" s="50"/>
       <c r="L119" s="44"/>
       <c r="M119" s="44"/>
       <c r="N119" s="44"/>
@@ -4181,7 +4574,7 @@
       <c r="H120" s="46"/>
       <c r="I120" s="44"/>
       <c r="J120" s="46"/>
-      <c r="K120" s="51"/>
+      <c r="K120" s="50"/>
       <c r="L120" s="44"/>
       <c r="M120" s="44"/>
       <c r="N120" s="44"/>
@@ -4204,7 +4597,7 @@
       <c r="H121" s="46"/>
       <c r="I121" s="44"/>
       <c r="J121" s="46"/>
-      <c r="K121" s="51"/>
+      <c r="K121" s="50"/>
       <c r="L121" s="44"/>
       <c r="M121" s="44"/>
       <c r="N121" s="44"/>
@@ -4227,7 +4620,7 @@
       <c r="H122" s="46"/>
       <c r="I122" s="44"/>
       <c r="J122" s="46"/>
-      <c r="K122" s="51"/>
+      <c r="K122" s="50"/>
       <c r="L122" s="44"/>
       <c r="M122" s="44"/>
       <c r="N122" s="44"/>
@@ -4250,7 +4643,7 @@
       <c r="H123" s="46"/>
       <c r="I123" s="44"/>
       <c r="J123" s="46"/>
-      <c r="K123" s="51"/>
+      <c r="K123" s="50"/>
       <c r="L123" s="44"/>
       <c r="M123" s="44"/>
       <c r="N123" s="44"/>
@@ -4273,7 +4666,7 @@
       <c r="H124" s="46"/>
       <c r="I124" s="44"/>
       <c r="J124" s="46"/>
-      <c r="K124" s="51"/>
+      <c r="K124" s="50"/>
       <c r="L124" s="44"/>
       <c r="M124" s="44"/>
       <c r="N124" s="44"/>
@@ -4296,7 +4689,7 @@
       <c r="H125" s="46"/>
       <c r="I125" s="44"/>
       <c r="J125" s="46"/>
-      <c r="K125" s="51"/>
+      <c r="K125" s="50"/>
       <c r="L125" s="44"/>
       <c r="M125" s="44"/>
       <c r="N125" s="44"/>
@@ -4319,7 +4712,7 @@
       <c r="H126" s="46"/>
       <c r="I126" s="44"/>
       <c r="J126" s="46"/>
-      <c r="K126" s="51"/>
+      <c r="K126" s="50"/>
       <c r="L126" s="44"/>
       <c r="M126" s="44"/>
       <c r="N126" s="44"/>
@@ -4342,7 +4735,7 @@
       <c r="H127" s="46"/>
       <c r="I127" s="44"/>
       <c r="J127" s="46"/>
-      <c r="K127" s="51"/>
+      <c r="K127" s="50"/>
       <c r="L127" s="44"/>
       <c r="M127" s="44"/>
       <c r="N127" s="44"/>
@@ -4365,7 +4758,7 @@
       <c r="H128" s="46"/>
       <c r="I128" s="44"/>
       <c r="J128" s="46"/>
-      <c r="K128" s="51"/>
+      <c r="K128" s="50"/>
       <c r="L128" s="44"/>
       <c r="M128" s="44"/>
       <c r="N128" s="44"/>
@@ -4388,7 +4781,7 @@
       <c r="H129" s="46"/>
       <c r="I129" s="44"/>
       <c r="J129" s="46"/>
-      <c r="K129" s="51"/>
+      <c r="K129" s="50"/>
       <c r="L129" s="44"/>
       <c r="M129" s="44"/>
       <c r="N129" s="44"/>
@@ -4411,7 +4804,7 @@
       <c r="H130" s="46"/>
       <c r="I130" s="44"/>
       <c r="J130" s="46"/>
-      <c r="K130" s="51"/>
+      <c r="K130" s="50"/>
       <c r="L130" s="44"/>
       <c r="M130" s="44"/>
       <c r="N130" s="44"/>
@@ -4434,7 +4827,7 @@
       <c r="H131" s="46"/>
       <c r="I131" s="44"/>
       <c r="J131" s="46"/>
-      <c r="K131" s="51"/>
+      <c r="K131" s="50"/>
       <c r="L131" s="44"/>
       <c r="M131" s="44"/>
       <c r="N131" s="44"/>
@@ -4457,7 +4850,7 @@
       <c r="H132" s="46"/>
       <c r="I132" s="44"/>
       <c r="J132" s="46"/>
-      <c r="K132" s="51"/>
+      <c r="K132" s="50"/>
       <c r="L132" s="44"/>
       <c r="M132" s="44"/>
       <c r="N132" s="44"/>
@@ -4480,7 +4873,7 @@
       <c r="H133" s="46"/>
       <c r="I133" s="44"/>
       <c r="J133" s="46"/>
-      <c r="K133" s="51"/>
+      <c r="K133" s="50"/>
       <c r="L133" s="44"/>
       <c r="M133" s="44"/>
       <c r="N133" s="44"/>
@@ -4503,7 +4896,7 @@
       <c r="H134" s="46"/>
       <c r="I134" s="44"/>
       <c r="J134" s="46"/>
-      <c r="K134" s="51"/>
+      <c r="K134" s="50"/>
       <c r="L134" s="44"/>
       <c r="M134" s="44"/>
       <c r="N134" s="44"/>
@@ -4526,7 +4919,7 @@
       <c r="H135" s="46"/>
       <c r="I135" s="44"/>
       <c r="J135" s="46"/>
-      <c r="K135" s="51"/>
+      <c r="K135" s="50"/>
       <c r="L135" s="44"/>
       <c r="M135" s="44"/>
       <c r="N135" s="44"/>
@@ -4546,7 +4939,7 @@
       <c r="H136" s="46"/>
       <c r="I136" s="44"/>
       <c r="J136" s="46"/>
-      <c r="K136" s="51"/>
+      <c r="K136" s="50"/>
       <c r="L136" s="44"/>
       <c r="M136" s="44"/>
       <c r="N136" s="44"/>
@@ -4566,7 +4959,7 @@
       <c r="H137" s="46"/>
       <c r="I137" s="44"/>
       <c r="J137" s="46"/>
-      <c r="K137" s="51"/>
+      <c r="K137" s="50"/>
       <c r="L137" s="44"/>
       <c r="M137" s="44"/>
       <c r="N137" s="44"/>
@@ -4586,7 +4979,7 @@
       <c r="H138" s="46"/>
       <c r="I138" s="44"/>
       <c r="J138" s="46"/>
-      <c r="K138" s="51"/>
+      <c r="K138" s="50"/>
       <c r="L138" s="44"/>
       <c r="M138" s="44"/>
       <c r="N138" s="44"/>
@@ -4606,7 +4999,7 @@
       <c r="H139" s="46"/>
       <c r="I139" s="44"/>
       <c r="J139" s="46"/>
-      <c r="K139" s="51"/>
+      <c r="K139" s="50"/>
       <c r="L139" s="44"/>
       <c r="M139" s="44"/>
       <c r="N139" s="44"/>
@@ -4626,7 +5019,7 @@
       <c r="H140" s="46"/>
       <c r="I140" s="44"/>
       <c r="J140" s="46"/>
-      <c r="K140" s="51"/>
+      <c r="K140" s="50"/>
       <c r="L140" s="44"/>
       <c r="M140" s="44"/>
       <c r="N140" s="44"/>
@@ -4646,7 +5039,7 @@
       <c r="H141" s="46"/>
       <c r="I141" s="44"/>
       <c r="J141" s="46"/>
-      <c r="K141" s="51"/>
+      <c r="K141" s="50"/>
       <c r="L141" s="44"/>
       <c r="M141" s="44"/>
       <c r="N141" s="44"/>
@@ -4666,7 +5059,7 @@
       <c r="H142" s="46"/>
       <c r="I142" s="44"/>
       <c r="J142" s="46"/>
-      <c r="K142" s="51"/>
+      <c r="K142" s="50"/>
       <c r="L142" s="44"/>
       <c r="M142" s="44"/>
       <c r="N142" s="44"/>
@@ -4686,7 +5079,7 @@
       <c r="H143" s="46"/>
       <c r="I143" s="44"/>
       <c r="J143" s="46"/>
-      <c r="K143" s="51"/>
+      <c r="K143" s="50"/>
       <c r="L143" s="44"/>
       <c r="M143" s="44"/>
       <c r="N143" s="44"/>
@@ -4706,7 +5099,7 @@
       <c r="H144" s="46"/>
       <c r="I144" s="44"/>
       <c r="J144" s="46"/>
-      <c r="K144" s="51"/>
+      <c r="K144" s="50"/>
       <c r="L144" s="44"/>
       <c r="M144" s="44"/>
       <c r="N144" s="44"/>
@@ -4726,7 +5119,7 @@
       <c r="H145" s="46"/>
       <c r="I145" s="44"/>
       <c r="J145" s="46"/>
-      <c r="K145" s="51"/>
+      <c r="K145" s="50"/>
       <c r="L145" s="44"/>
       <c r="M145" s="44"/>
       <c r="N145" s="44"/>
@@ -4746,7 +5139,7 @@
       <c r="H146" s="46"/>
       <c r="I146" s="44"/>
       <c r="J146" s="46"/>
-      <c r="K146" s="51"/>
+      <c r="K146" s="50"/>
       <c r="L146" s="44"/>
       <c r="M146" s="44"/>
       <c r="N146" s="44"/>
@@ -4766,7 +5159,7 @@
       <c r="H147" s="46"/>
       <c r="I147" s="44"/>
       <c r="J147" s="46"/>
-      <c r="K147" s="51"/>
+      <c r="K147" s="50"/>
       <c r="L147" s="44"/>
       <c r="M147" s="44"/>
       <c r="N147" s="44"/>
@@ -4786,7 +5179,7 @@
       <c r="H148" s="46"/>
       <c r="I148" s="44"/>
       <c r="J148" s="46"/>
-      <c r="K148" s="51"/>
+      <c r="K148" s="50"/>
       <c r="L148" s="44"/>
       <c r="M148" s="44"/>
       <c r="N148" s="44"/>
@@ -4806,7 +5199,7 @@
       <c r="H149" s="46"/>
       <c r="I149" s="44"/>
       <c r="J149" s="46"/>
-      <c r="K149" s="51"/>
+      <c r="K149" s="50"/>
       <c r="L149" s="44"/>
       <c r="M149" s="44"/>
       <c r="N149" s="44"/>
@@ -4826,7 +5219,7 @@
       <c r="H150" s="46"/>
       <c r="I150" s="44"/>
       <c r="J150" s="46"/>
-      <c r="K150" s="51"/>
+      <c r="K150" s="50"/>
       <c r="L150" s="44"/>
       <c r="M150" s="44"/>
       <c r="N150" s="44"/>
@@ -4846,7 +5239,7 @@
       <c r="H151" s="46"/>
       <c r="I151" s="44"/>
       <c r="J151" s="46"/>
-      <c r="K151" s="51"/>
+      <c r="K151" s="50"/>
       <c r="L151" s="44"/>
       <c r="M151" s="44"/>
       <c r="N151" s="44"/>
@@ -4866,7 +5259,7 @@
       <c r="H152" s="46"/>
       <c r="I152" s="44"/>
       <c r="J152" s="46"/>
-      <c r="K152" s="51"/>
+      <c r="K152" s="50"/>
       <c r="L152" s="44"/>
       <c r="M152" s="44"/>
       <c r="N152" s="44"/>
@@ -4886,7 +5279,7 @@
       <c r="H153" s="46"/>
       <c r="I153" s="44"/>
       <c r="J153" s="46"/>
-      <c r="K153" s="51"/>
+      <c r="K153" s="50"/>
       <c r="L153" s="44"/>
       <c r="M153" s="44"/>
       <c r="N153" s="44"/>
@@ -4906,7 +5299,7 @@
       <c r="H154" s="46"/>
       <c r="I154" s="44"/>
       <c r="J154" s="46"/>
-      <c r="K154" s="51"/>
+      <c r="K154" s="50"/>
       <c r="L154" s="44"/>
       <c r="M154" s="44"/>
       <c r="N154" s="44"/>
@@ -4926,7 +5319,7 @@
       <c r="H155" s="46"/>
       <c r="I155" s="44"/>
       <c r="J155" s="46"/>
-      <c r="K155" s="51"/>
+      <c r="K155" s="50"/>
       <c r="L155" s="44"/>
       <c r="M155" s="44"/>
       <c r="N155" s="44"/>
@@ -4946,7 +5339,7 @@
       <c r="H156" s="46"/>
       <c r="I156" s="44"/>
       <c r="J156" s="46"/>
-      <c r="K156" s="51"/>
+      <c r="K156" s="50"/>
       <c r="L156" s="44"/>
       <c r="M156" s="44"/>
       <c r="N156" s="44"/>
@@ -4966,7 +5359,7 @@
       <c r="H157" s="46"/>
       <c r="I157" s="44"/>
       <c r="J157" s="46"/>
-      <c r="K157" s="51"/>
+      <c r="K157" s="50"/>
       <c r="L157" s="44"/>
       <c r="M157" s="44"/>
       <c r="N157" s="44"/>
@@ -4986,7 +5379,7 @@
       <c r="H158" s="46"/>
       <c r="I158" s="44"/>
       <c r="J158" s="46"/>
-      <c r="K158" s="51"/>
+      <c r="K158" s="50"/>
       <c r="L158" s="44"/>
       <c r="M158" s="44"/>
       <c r="N158" s="44"/>
@@ -5006,7 +5399,7 @@
       <c r="H159" s="46"/>
       <c r="I159" s="44"/>
       <c r="J159" s="46"/>
-      <c r="K159" s="51"/>
+      <c r="K159" s="50"/>
       <c r="L159" s="44"/>
       <c r="M159" s="44"/>
       <c r="N159" s="44"/>
@@ -5026,7 +5419,7 @@
       <c r="H160" s="46"/>
       <c r="I160" s="44"/>
       <c r="J160" s="46"/>
-      <c r="K160" s="51"/>
+      <c r="K160" s="50"/>
       <c r="L160" s="44"/>
       <c r="M160" s="44"/>
       <c r="N160" s="44"/>
@@ -5046,7 +5439,7 @@
       <c r="H161" s="46"/>
       <c r="I161" s="44"/>
       <c r="J161" s="46"/>
-      <c r="K161" s="51"/>
+      <c r="K161" s="50"/>
       <c r="L161" s="44"/>
       <c r="M161" s="44"/>
       <c r="N161" s="44"/>
@@ -5066,7 +5459,7 @@
       <c r="H162" s="46"/>
       <c r="I162" s="44"/>
       <c r="J162" s="46"/>
-      <c r="K162" s="51"/>
+      <c r="K162" s="50"/>
       <c r="L162" s="44"/>
       <c r="M162" s="44"/>
       <c r="N162" s="44"/>
@@ -5086,7 +5479,7 @@
       <c r="H163" s="46"/>
       <c r="I163" s="44"/>
       <c r="J163" s="46"/>
-      <c r="K163" s="51"/>
+      <c r="K163" s="50"/>
       <c r="L163" s="44"/>
       <c r="M163" s="44"/>
       <c r="N163" s="44"/>
@@ -5106,7 +5499,7 @@
       <c r="H164" s="46"/>
       <c r="I164" s="44"/>
       <c r="J164" s="46"/>
-      <c r="K164" s="51"/>
+      <c r="K164" s="50"/>
       <c r="L164" s="44"/>
       <c r="M164" s="44"/>
       <c r="N164" s="44"/>
@@ -5126,7 +5519,7 @@
       <c r="H165" s="46"/>
       <c r="I165" s="44"/>
       <c r="J165" s="46"/>
-      <c r="K165" s="51"/>
+      <c r="K165" s="50"/>
       <c r="L165" s="44"/>
       <c r="M165" s="44"/>
       <c r="N165" s="44"/>
@@ -5146,7 +5539,7 @@
       <c r="H166" s="46"/>
       <c r="I166" s="44"/>
       <c r="J166" s="46"/>
-      <c r="K166" s="51"/>
+      <c r="K166" s="50"/>
       <c r="L166" s="44"/>
       <c r="M166" s="44"/>
       <c r="N166" s="44"/>
@@ -5166,7 +5559,7 @@
       <c r="H167" s="46"/>
       <c r="I167" s="44"/>
       <c r="J167" s="46"/>
-      <c r="K167" s="51"/>
+      <c r="K167" s="50"/>
       <c r="L167" s="44"/>
       <c r="M167" s="44"/>
       <c r="N167" s="44"/>
@@ -5186,7 +5579,7 @@
       <c r="H168" s="46"/>
       <c r="I168" s="44"/>
       <c r="J168" s="46"/>
-      <c r="K168" s="51"/>
+      <c r="K168" s="50"/>
       <c r="L168" s="44"/>
       <c r="M168" s="44"/>
       <c r="N168" s="44"/>
@@ -5206,7 +5599,7 @@
       <c r="H169" s="46"/>
       <c r="I169" s="44"/>
       <c r="J169" s="46"/>
-      <c r="K169" s="51"/>
+      <c r="K169" s="50"/>
       <c r="L169" s="44"/>
       <c r="M169" s="44"/>
       <c r="N169" s="44"/>
@@ -5221,7 +5614,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 T1:T1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 T1:T1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5241,7 +5634,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5274,120 +5667,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="63" t="s">
+      <c r="R1" s="62" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -5416,19 +5809,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5466,8 +5859,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5479,8 +5872,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5492,8 +5885,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5505,8 +5898,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5518,8 +5911,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5531,8 +5924,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5544,8 +5937,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5557,8 +5950,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5619,36 +6012,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -5933,36 +6326,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6247,36 +6640,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6542,7 +6935,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6563,36 +6956,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="82"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6635,19 +7028,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+    <row r="4" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="87" t="s">
+        <v>88</v>
+      </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -6836,7 +7253,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">

--- a/VersionRecords/Version 5.1.8.1 20161216/版本Bug和特性计划及评审表v5.1.8.xlsx
+++ b/VersionRecords/Version 5.1.8.1 20161216/版本Bug和特性计划及评审表v5.1.8.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
   <si>
     <t>No</t>
   </si>
@@ -411,6 +411,62 @@
   </si>
   <si>
     <t>能</t>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.1.8</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问域名修改</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.房东PC项目访问域名从“p.mgzf.com”增加"hb.mgzf.com"域名访问
+2.Nginx跳转至"hb.mgzf.com/mogoroom-partnerpc/"去除项目名称
+3."p.mgzf.com”域名的跳转仍然保留</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>裔玲玲</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.房东PC项目访问域名从“p.mgzf.com”增加"hb.mgzf.com"域名访问
+2.Nginx跳转至"hb.mgzf.com/mogoroom-partnerpc/"去除项目名称
+3."p.mgzf.com”域名的跳转仍然保留</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -429,6 +485,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -436,6 +493,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -443,12 +501,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -456,6 +516,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -463,12 +524,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -476,23 +539,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -500,22 +567,26 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1054,6 +1125,21 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1080,21 +1166,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1481,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1794,7 +1865,9 @@
       <c r="Q5" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="R5" s="44"/>
+      <c r="R5" s="44">
+        <v>6585</v>
+      </c>
       <c r="S5" s="44"/>
       <c r="T5" s="51"/>
       <c r="U5" s="54"/>
@@ -1978,7 +2051,7 @@
       <c r="C9" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="76" t="s">
         <v>96</v>
       </c>
       <c r="E9" s="38" t="s">
@@ -2000,7 +2073,7 @@
         <v>42718</v>
       </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="86" t="s">
+      <c r="L9" s="77" t="s">
         <v>97</v>
       </c>
       <c r="M9" s="38" t="s">
@@ -5809,19 +5882,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -5859,8 +5932,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5872,8 +5945,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5885,8 +5958,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5898,8 +5971,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5911,8 +5984,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5924,8 +5997,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5937,8 +6010,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5950,8 +6023,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6012,36 +6085,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6307,7 +6380,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6326,36 +6399,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6398,19 +6471,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+    <row r="4" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -6621,7 +6718,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6640,36 +6737,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6712,19 +6809,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+    <row r="4" spans="1:13" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>116</v>
+      </c>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
@@ -6956,36 +7077,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7032,37 +7153,37 @@
       <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="79" t="s">
         <v>100</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="78" t="s">
         <v>103</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="87" t="s">
+      <c r="L4" s="78" t="s">
         <v>88</v>
       </c>
       <c r="M4" s="11"/>
